--- a/Results/Results_Alice_59_Site_38_QCELLS_Power.xlsx
+++ b/Results/Results_Alice_59_Site_38_QCELLS_Power.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.214037679014638</v>
+        <v>0.2134781023283591</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9538534190714263</v>
+        <v>0.951359679941489</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3451271026291332</v>
+        <v>0.34445614492969</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>max\_depth: 2, max\_features: 8 \\</t>
+          <t>max\_depth: 2, max\_features: 4 \\</t>
         </is>
       </c>
     </row>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2136302166318191</v>
+        <v>0.2185103567501699</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9520375734278739</v>
+        <v>0.9737857925211961</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3478031881610624</v>
+        <v>0.3424229492168782</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>max\_depth: 2, max\_features: 6, n\_estimators: 50 \\</t>
+          <t>max\_depth: 4, max\_features: 6, n\_estimators: 100 \\</t>
         </is>
       </c>
     </row>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2147954588415084</v>
+        <v>0.2147954588415082</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9572304454066547</v>
+        <v>0.957230445406654</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3449415018117399</v>
+        <v>0.3449415018117396</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2081346233967397</v>
+        <v>0.2081346278682179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9275466033274746</v>
+        <v>0.9275466232545024</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3304014462927909</v>
+        <v>0.3304014511901499</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2537102210565343</v>
+        <v>0.2195613992983817</v>
       </c>
       <c r="D7" t="n">
-        <v>1.130653083710518</v>
+        <v>0.9784697366417674</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3714249629997463</v>
+        <v>0.3465810540536151</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.05, max\_depth: 20, max\_features: 4, n\_estimators: 150 \\</t>
+          <t>learning\_rate: 0.1, max\_depth: 2, max\_features: 4, n\_estimators: 100 \\</t>
         </is>
       </c>
     </row>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2123120146209737</v>
+        <v>0.2112767484229286</v>
       </c>
       <c r="D10" t="n">
-        <v>0.946163040023941</v>
+        <v>0.9415494028026793</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3419903795940587</v>
+        <v>0.3258872288672837</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2070017913577585</v>
+        <v>0.2100343088272263</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9224981664420142</v>
+        <v>0.9360125026559097</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3245180604872114</v>
+        <v>0.3296294909157111</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2102044903817919</v>
+        <v>0.2124389108643864</v>
       </c>
       <c r="D12" t="n">
-        <v>0.936770912382798</v>
+        <v>0.9467285498734394</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3312468616528594</v>
+        <v>0.3370373381248252</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2085797969631104</v>
+        <v>0.2246266861930744</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9295305078919317</v>
+        <v>1.001043057588449</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3325180277097971</v>
+        <v>0.372001803045915</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2108858650781006</v>
+        <v>0.2076785985011936</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9398074412161084</v>
+        <v>0.9255143400932589</v>
       </c>
       <c r="E14" t="n">
-        <v>0.324432267735827</v>
+        <v>0.3232297756306337</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.254461227227491</v>
+        <v>0.2432894515816016</v>
       </c>
       <c r="D15" t="n">
-        <v>1.133999923422146</v>
+        <v>1.084213192198053</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4221477199107924</v>
+        <v>0.3964744446842932</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -881,22 +881,20 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.211138587188536</v>
+        <v>0.2041020993604703</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9409336908102149</v>
+        <v>0.9095757635333271</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3232093987110726</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3]</t>
-        </is>
+        <v>0.3265963199550079</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.1 \\</t>
+          <t>omega: 10000, r: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -910,22 +908,20 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2284422726368814</v>
+        <v>0.2037456337254067</v>
       </c>
       <c r="D17" t="n">
-        <v>1.018047120573728</v>
+        <v>0.9079871835863188</v>
       </c>
       <c r="E17" t="n">
-        <v>0.34966586378826</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 77, 77, 77, 77, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 87, 88, 89, 90, 90, 91, 91, 5, 5, 5, 5, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 19, 20, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 23, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 37, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 14, 15, 16, 17, 18, 19, 20, 21, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 33, 34, 35, 36]</t>
-        </is>
+        <v>0.3270520428519177</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>omega: 250, r: 0.1 \\</t>
+          <t>omega: 1000, r: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -939,18 +935,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2044319370192744</v>
+        <v>0.2034624143086435</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9110456765880619</v>
+        <v>0.9067250235298711</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3302270708222647</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3]</t>
-        </is>
+        <v>0.3279143007705932</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -968,22 +962,20 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5832128650267265</v>
+        <v>0.763010999726573</v>
       </c>
       <c r="D19" t="n">
-        <v>2.599073153442951</v>
+        <v>3.400338922702131</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6875671996102336</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+        <v>0.8741604991443062</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>alpha: 0.9, beta: 0.01, lambda1: 0.001, r: 0.1, s: 10000 \\</t>
+          <t>alpha: 0.001, beta: 0.001, lambda1: 0.001, omega: 10000, sigma: 0.75 \\</t>
         </is>
       </c>
     </row>
@@ -997,22 +989,20 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2891667338951106</v>
+        <v>1.468802442140909</v>
       </c>
       <c r="D20" t="n">
-        <v>1.288664122491746</v>
+        <v>6.545680357899745</v>
       </c>
       <c r="E20" t="n">
-        <v>0.421917621154967</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 3, 4, 5, 5, 5, 5, 5, 5, 5, 6, 6, 7, 7, 7, 7, 7, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 16, 17, 18, 18, 18, 19, 19, 19, 19, 20, 20, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 21, 22, 22, 22, 23, 24, 24, 25, 26, 27, 28, 28, 28, 29, 30, 30, 31, 32, 32, 33, 33, 33, 33, 33, 33, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 35, 35, 35, 35, 35, 35, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 36, 37, 37, 37, 37, 37, 37, 38, 39, 39, 39, 40, 40, 40, 40, 40, 40, 40, 41, 41, 41, 41, 41, 41, 41, 41, 42, 42, 43, 44, 44, 45, 46, 46, 47, 47, 48, 48, 48, 48, 48, 49, 49, 50, 51, 51, 51, 51, 52, 52, 52, 52, 52, 53, 54, 55, 55, 55, 55, 55, 55, 55, 55, 55, 55, 56, 56, 56, 57, 57, 57, 57, 57, 57, 58, 58, 59, 59, 59, 59, 59, 59, 59, 59, 59, 59, 59, 59, 59, 60, 61, 61, 61, 61, 61, 62, 62, 62, 62, 62, 62, 62, 63, 63, 63, 63, 63, 63, 63, 64, 64, 65, 66, 66, 66, 66, 67, 68, 68, 68, 69, 69, 70, 71, 71, 72, 73, 73, 73, 73, 74, 74, 74, 74, 74, 74, 74, 74, 74, 75, 75, 76, 77, 78, 78, 78, 78, 79, 79, 80, 80, 80, 80, 80, 81, 81, 81, 81, 82, 83, 83, 83, 83, 84, 84, 85, 86, 86, 87, 88, 88, 89, 89, 90, 90, 90, 90, 90, 91, 91, 91, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 100, 101, 102, 103, 104, 104, 104, 105, 105, 105, 105, 106, 106, 106, 106, 107, 108, 108, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 109, 110, 110, 110, 110, 110, 111, 111, 111, 111, 111, 111, 111, 112, 113, 113, 114, 115, 116, 116, 117, 117, 117, 117, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 126, 127, 127, 127, 127, 128, 129, 130, 130, 131, 132, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 133, 134, 134, 134, 134, 134, 134, 135, 135, 135, 135, 136, 136, 136, 136, 136, 137, 137, 138]</t>
-        </is>
+        <v>1.245549205559096</v>
+      </c>
+      <c r="F20" t="n">
+        <v>289</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>alpha: 0.001, lambda1: 0.1, omega: 10000, sigma: 0.003, w: 10 \\</t>
+          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1026,22 +1016,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.251318247389884</v>
+        <v>0.2036870923350303</v>
       </c>
       <c r="D21" t="n">
-        <v>1.119993314501812</v>
+        <v>0.9077262953837142</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3519141351158337</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 10, 10, 10, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11]</t>
-        </is>
+        <v>0.3292323905467104</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.05, lambda1: 0.75, omega: 100, pi: 0.5, sigma: 0.5 \\</t>
+          <t>alpha: 0.1, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -1055,22 +1043,20 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2615113978225772</v>
+        <v>0.2332020437026175</v>
       </c>
       <c r="D22" t="n">
-        <v>1.165418827598825</v>
+        <v>1.039258918075696</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3665744341295586</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 9, 9, 9, 9, 10, 10, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 11, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 15, 15, 15, 15, 15, 15, 15, 15, 15, 16, 16, 16, 16, 16, 17, 17, 17, 17, 17, 17, 17, 18, 18, 18, 19, 19, 19, 19, 19, 19, 19, 19, 19, 19, 20, 20, 21, 21, 21, 21, 22, 22, 22, 22, 22, 22, 22, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 23, 24, 24, 25, 25, 25, 25, 25, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 26, 27, 27, 28, 28, 28, 29, 29, 29, 29, 30, 30, 30, 31, 31, 31, 31, 32, 32, 32, 32, 32, 32, 32, 32, 32, 33, 33, 33, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 35, 35, 35, 35, 35, 35, 35, 35, 35, 35, 35, 35, 35, 35, 36, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33]</t>
-        </is>
+        <v>0.3593852102177377</v>
+      </c>
+      <c r="F22" t="n">
+        <v>19</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>alpha: 0.05, beta: 0.01, e\_utility: 0.03, lambda1: 0.001, sigma: 1 \\</t>
+          <t>alpha: 0.1, beta: 0.1, e\_utility: 0.05, lambda1: 0.001, sigma: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1084,20 +1070,20 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2451927043186074</v>
+        <v>0.2530366744110127</v>
       </c>
       <c r="D23" t="n">
-        <v>1.092694989136366</v>
+        <v>1.127651440384481</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3949794620482988</v>
+        <v>0.3595913582603033</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: minmax, rules: 9 \\</t>
+          <t>fuzzy\_operator: prod, rules: 13 \\</t>
         </is>
       </c>
     </row>
@@ -1111,20 +1097,20 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2539473935554741</v>
+        <v>0.2598497790660668</v>
       </c>
       <c r="D24" t="n">
-        <v>1.131710036860379</v>
+        <v>1.158013866288335</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4161024712817146</v>
+        <v>0.4239241562602761</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.96, rules: 1 \\</t>
         </is>
       </c>
     </row>
@@ -1138,20 +1124,20 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2365646108324107</v>
+        <v>0.2308575596547955</v>
       </c>
       <c r="D25" t="n">
-        <v>1.054244112123662</v>
+        <v>1.02881078513355</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3593141375255331</v>
+        <v>0.3362284749924245</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 11 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 3 \\</t>
         </is>
       </c>
     </row>
@@ -1165,20 +1151,20 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2617281135533721</v>
+        <v>0.2747083123076142</v>
       </c>
       <c r="D26" t="n">
-        <v>1.166384615686871</v>
+        <v>1.22423053804484</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3534770630233267</v>
+        <v>0.438934642803974</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>error\_metric: CPPM, fuzzy\_operator: min, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 13, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: minmax, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 3, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1192,20 +1178,20 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2158122628109583</v>
+        <v>0.2162551325901658</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9617618061803755</v>
+        <v>0.9637354439765117</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3424418723677545</v>
+        <v>0.3420355326850169</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: min, lambda1: 0.97, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1219,20 +1205,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2522428304569012</v>
+        <v>0.2132023438888703</v>
       </c>
       <c r="D28" t="n">
-        <v>1.124113695192492</v>
+        <v>0.950130769538633</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3612228172518329</v>
+        <v>0.33136624458966</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 11 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: MAE, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 17, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1246,13 +1232,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.218967636996872</v>
+        <v>0.2180338432392744</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9758236501955952</v>
+        <v>0.971662222298916</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3365546260050387</v>
+        <v>0.347620679501399</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1261,7 +1247,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>combination: mean, n\_estimators: 50 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1275,13 +1261,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2114950063864007</v>
+        <v>0.2074393567011616</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9425220638110394</v>
+        <v>0.9244481651562294</v>
       </c>
       <c r="E30" t="n">
-        <v>0.330319447665947</v>
+        <v>0.3320283723267127</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1290,7 +1276,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>combination: mean, n\_estimators: 50 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1304,13 +1290,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2108710324811481</v>
+        <v>0.2109172793027028</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9397413401287582</v>
+        <v>0.9399474379011884</v>
       </c>
       <c r="E31" t="n">
-        <v>0.337158454546733</v>
+        <v>0.3359373049119234</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
